--- a/dogbreeddata.xlsx
+++ b/dogbreeddata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AksV\Desktop\Coding\git_lessons\PawPal\pawpal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{310361FF-0EB5-46AE-86C4-5EF3CE5251D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A12781C5-7E04-45B9-A38B-3D8B7FA084AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="565">
   <si>
     <t>BreedName</t>
   </si>
@@ -2558,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4660,6 +4660,27 @@
       <c r="G51" t="s">
         <v>18</v>
       </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -4683,6 +4704,27 @@
       <c r="G52" t="s">
         <v>21</v>
       </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -4706,6 +4748,27 @@
       <c r="G53" t="s">
         <v>21</v>
       </c>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -4729,6 +4792,27 @@
       <c r="G54" t="s">
         <v>21</v>
       </c>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -4749,6 +4833,27 @@
       <c r="G55" t="s">
         <v>18</v>
       </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -4769,6 +4874,27 @@
       <c r="G56" t="s">
         <v>21</v>
       </c>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -4786,6 +4912,27 @@
       <c r="G57" t="s">
         <v>18</v>
       </c>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" t="s">
+        <v>33</v>
+      </c>
+      <c r="N57" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -4806,6 +4953,27 @@
       <c r="G58" t="s">
         <v>21</v>
       </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" t="s">
+        <v>33</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -4826,6 +4994,27 @@
       <c r="G59" t="s">
         <v>21</v>
       </c>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" t="s">
+        <v>33</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -4845,6 +5034,27 @@
       </c>
       <c r="G60" t="s">
         <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
